--- a/gropin/schema/metadataschema1042.xlsx
+++ b/gropin/schema/metadataschema1042.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Gropin growth model for Pichia anomala in/on Dairy products, Sugar solutions, beverages (gropin ID: 1042 )</t>
+          <t>Gropin secondary growth model for Pichia anomala in/on Dairy products, Sugar solutions, beverages (gropin ID: 1042 )</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>QRA model</t>
+          <t>Predictive</t>
         </is>
       </c>
     </row>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>seq(2.002,19.98001998002,length.out=21)</t>
+          <t>seq(2.002,19.98001998002,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>seq(4.004,7.49250749250749,length.out=21)</t>
+          <t>seq(4.004,7.49250749250749,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5368,7 +5368,7 @@
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>seq(0.95095,0.994005994005994,length.out=21)</t>
+          <t>seq(0.95095,0.994005994005994,length.out=10)</t>
         </is>
       </c>
     </row>
